--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF03A57-D7CB-4BF3-9831-E4E66FCFC3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -33,12 +34,22 @@
     <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -305,11 +316,47 @@
   <si>
     <t>ĐL Ngọc Kim Anh</t>
   </si>
+  <si>
+    <t>125.212.203.114,16767,0</t>
+  </si>
+  <si>
+    <t>Lỗi ăng ten GSM</t>
+  </si>
+  <si>
+    <t>Thay Ăng Ten GSM</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>Ăng ten GSM</t>
+  </si>
+  <si>
+    <t>Lỗi chập MCU</t>
+  </si>
+  <si>
+    <t>Thay MCU</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555,0</t>
+  </si>
+  <si>
+    <t>TB hoạt động bình thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Lại TB </t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757,1</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200622</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,6 +811,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,30 +853,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -814,6 +861,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,6 +967,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -943,6 +1019,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1118,10 +1211,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1154,41 +1247,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1233,58 +1326,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1309,23 +1402,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1359,7 +1452,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1390,7 +1483,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1419,7 +1512,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="75"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1448,7 +1541,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1477,7 +1570,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="75"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1599,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1628,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="75"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1566,7 +1659,7 @@
       <c r="R13" s="67"/>
       <c r="S13" s="75"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1595,7 +1688,7 @@
       <c r="R14" s="67"/>
       <c r="S14" s="75"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1717,7 @@
       <c r="R15" s="67"/>
       <c r="S15" s="75"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1746,7 @@
       <c r="R16" s="67"/>
       <c r="S16" s="75"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3370,13 +3463,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3388,6 +3474,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3395,11 +3488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3431,28 +3524,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3462,10 +3555,10 @@
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3510,58 +3603,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -3586,23 +3679,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3625,18 +3718,28 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="J6" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="100">
+        <v>240000</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="101" t="s">
+        <v>20</v>
+      </c>
       <c r="P6" s="66"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="78"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3667,7 +3770,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="78"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3696,7 +3799,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="75"/>
       <c r="T8" s="78"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3725,7 +3828,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="78"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3754,7 +3857,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="75"/>
       <c r="T10" s="78"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3783,7 +3886,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="78"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3812,7 +3915,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="78"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3843,7 +3946,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="78"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3872,7 +3975,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="78"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3901,7 +4004,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3930,7 +4033,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4935,6 +5038,2531 @@
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
         <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="93"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
+      <c r="B5" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="89"/>
+      <c r="K5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="60">
+        <v>868183034639091</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="69"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="60">
+        <v>868183034620083</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="69"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="60">
+        <v>868183038054982</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="75"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="69"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="60">
+        <v>868183034531082</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="69"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="60">
+        <v>867857039938233</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="75"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="69"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="60">
+        <v>868183038518820</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="69"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="60">
+        <v>868183033877502</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="69"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="60">
+        <v>868183038027681</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="69"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="60">
+        <v>868183034626445</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="99">
+        <v>240000</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="69"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="60">
+        <v>868183037863979</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="69"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="60">
+        <v>868183033867255</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="69"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="60">
+        <v>868183034522347</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="69"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="60">
+        <v>868183034536875</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="60">
+        <v>868183037860686</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="61">
+        <v>44837</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="60">
+        <v>868183038077736</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>4</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>2</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>2</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>1</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>4</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>9</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -5670,8 +8298,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5707,28 +8335,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5738,10 +8366,10 @@
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5786,58 +8414,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5862,23 +8490,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5890,29 +8518,29 @@
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="59" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E6" s="60">
-        <v>868183034639091</v>
+        <v>862631039266670</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="64"/>
       <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="66"/>
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
       <c r="P6" s="66"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="67"/>
-      <c r="S6" s="75"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5929,29 +8557,29 @@
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="59" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E7" s="60">
-        <v>868183034620083</v>
+        <v>861694031741505</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="75"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5966,47 +8594,29 @@
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="59" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E8" s="60">
-        <v>868183038054982</v>
+        <v>862631034746221</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="75"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6016,34 +8626,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B9" s="61"/>
       <c r="C9" s="61"/>
-      <c r="D9" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="60">
-        <v>868183034531082</v>
-      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="59"/>
-      <c r="G9" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="75"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6053,52 +8655,26 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B10" s="61"/>
       <c r="C10" s="61"/>
-      <c r="D10" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="60">
-        <v>867857039938233</v>
-      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="59"/>
-      <c r="G10" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="75"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6108,34 +8684,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B11" s="61"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="60">
-        <v>868183038518820</v>
-      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="59"/>
-      <c r="G11" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="75"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6145,25 +8713,17 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61">
-        <v>44837</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="60">
-        <v>868183033877502</v>
-      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="59"/>
-      <c r="G12" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="G12" s="59"/>
       <c r="H12" s="56"/>
       <c r="I12" s="51"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6172,7 +8732,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6184,20 +8744,12 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61">
-        <v>44837</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="60">
-        <v>868183038027681</v>
-      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="59"/>
-      <c r="G13" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="G13" s="59"/>
       <c r="H13" s="47"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1"/>
@@ -6211,7 +8763,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6221,20 +8773,12 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B14" s="54"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="60">
-        <v>868183034626445</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="47"/>
       <c r="I14" s="51"/>
       <c r="J14" s="1"/>
@@ -6248,7 +8792,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6258,54 +8802,26 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B15" s="54"/>
       <c r="C15" s="54"/>
-      <c r="D15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="60">
-        <v>868183037863979</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>76</v>
-      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6315,20 +8831,12 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B16" s="54"/>
       <c r="C16" s="54"/>
-      <c r="D16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="60">
-        <v>868183033867255</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="51"/>
       <c r="J16" s="1"/>
@@ -6342,7 +8850,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6352,20 +8860,12 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B17" s="54"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="60">
-        <v>868183034522347</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="1"/>
       <c r="I17" s="51"/>
       <c r="J17" s="39"/>
@@ -6386,20 +8886,12 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B18" s="54"/>
       <c r="C18" s="54"/>
-      <c r="D18" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="60">
-        <v>868183034536875</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="1"/>
       <c r="I18" s="51"/>
       <c r="J18" s="1"/>
@@ -6421,22 +8913,12 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B19" s="54"/>
       <c r="C19" s="54"/>
-      <c r="D19" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="60">
-        <v>868183037860686</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="1"/>
       <c r="I19" s="51"/>
       <c r="J19" s="1"/>
@@ -6462,49 +8944,23 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B20" s="54"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="60">
-        <v>868183038077736</v>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="51" t="s">
-        <v>72</v>
-      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -6512,7 +8968,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6576,7 +9032,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6789,7 +9245,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -6917,7 +9373,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -6981,7 +9437,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7045,7 +9501,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8110,6 +10566,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8121,21 +10584,14 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -8171,28 +10627,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8202,10 +10658,10 @@
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8250,58 +10706,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8326,23 +10782,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="94"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8354,20 +10810,20 @@
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="60">
-        <v>862631039266670</v>
+        <v>864811037168114</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="64"/>
       <c r="K6" s="65"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="66"/>
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
@@ -8376,7 +10832,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8393,20 +10849,20 @@
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="60">
-        <v>861694031741505</v>
+        <v>864811037219727</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="59" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="1"/>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
+      <c r="L7" s="65"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -8415,7 +10871,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8425,25 +10881,17 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
-        <v>44837</v>
-      </c>
+      <c r="B8" s="61"/>
       <c r="C8" s="61"/>
-      <c r="D8" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="60">
-        <v>862631034746221</v>
-      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
-        <v>66</v>
-      </c>
+      <c r="G8" s="59"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="1"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
+      <c r="L8" s="65"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -8452,7 +10900,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8469,10 +10917,10 @@
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -8481,7 +10929,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8498,7 +10946,7 @@
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="1"/>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
@@ -8510,7 +10958,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8523,14 +10971,14 @@
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="59"/>
       <c r="H11" s="56"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="39"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -8539,7 +10987,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8552,14 +11000,14 @@
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="59"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -8568,7 +11016,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8586,11 +11034,11 @@
       <c r="E13" s="60"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="39"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -8599,7 +11047,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8628,7 +11076,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8657,7 +11105,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8686,7 +11134,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10402,6 +12850,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10413,2297 +12868,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="53" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="45"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="45"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="61">
-        <v>44837</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="60">
-        <v>864811037168114</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="69"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="61">
-        <v>44837</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="60">
-        <v>864811037219727</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="69"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="69"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="69"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="69"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="69"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="69"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="69"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="69"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="69"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="69"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="69"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="46"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="32"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="32"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="32"/>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="32"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12711,7 +12875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12747,28 +12911,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12778,10 +12942,10 @@
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12826,58 +12990,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -12902,23 +13066,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="81"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="97"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="94"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12944,7 +13108,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12975,7 +13139,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13004,7 +13168,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13033,7 +13197,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13062,7 +13226,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13091,7 +13255,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13120,7 +13284,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13151,7 +13315,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13180,7 +13344,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13209,7 +13373,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13238,7 +13402,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14469,13 +14633,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14487,6 +14644,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF03A57-D7CB-4BF3-9831-E4E66FCFC3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489BEFCB-4075-4AAF-A9EB-C3FB07251163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -352,6 +352,9 @@
   <si>
     <t>LE.2.00.---28.200622</t>
   </si>
+  <si>
+    <t>Lock:125.212.203.114,16161</t>
+  </si>
 </sst>
 </file>
 
@@ -571,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,6 +814,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,18 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,41 +1253,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1326,58 +1332,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1402,23 +1408,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1458,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1483,7 +1489,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1512,7 +1518,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="75"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1541,7 +1547,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1570,7 +1576,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="75"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1599,7 +1605,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1628,7 +1634,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="75"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1659,7 +1665,7 @@
       <c r="R13" s="67"/>
       <c r="S13" s="75"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1694,7 @@
       <c r="R14" s="67"/>
       <c r="S14" s="75"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1717,7 +1723,7 @@
       <c r="R15" s="67"/>
       <c r="S15" s="75"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1746,7 +1752,7 @@
       <c r="R16" s="67"/>
       <c r="S16" s="75"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3491,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3524,41 +3530,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3603,58 +3609,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -3679,23 +3685,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,10 +3724,10 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="100">
+      <c r="K6" s="83">
         <v>240000</v>
       </c>
       <c r="L6" s="64"/>
@@ -3731,7 +3737,7 @@
       <c r="N6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="101" t="s">
+      <c r="O6" s="84" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="66"/>
@@ -3739,7 +3745,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="78"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3770,7 +3776,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="78"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3799,7 +3805,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="75"/>
       <c r="T8" s="78"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3828,7 +3834,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="78"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3857,7 +3863,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="75"/>
       <c r="T10" s="78"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3886,7 +3892,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="78"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3915,7 +3921,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="78"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3946,7 +3952,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="78"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3975,7 +3981,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="78"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4004,7 +4010,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4033,7 +4039,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5777,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5810,41 +5816,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5889,58 +5895,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5965,23 +5971,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,7 +6021,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6054,7 +6060,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6109,7 +6115,7 @@
       </c>
       <c r="S8" s="75"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6146,7 +6152,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6201,7 +6207,7 @@
       </c>
       <c r="S10" s="75"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6238,7 +6244,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6275,7 +6281,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6327,12 +6333,12 @@
       <c r="Q13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="98" t="s">
+      <c r="R13" s="81" t="s">
         <v>91</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6366,7 +6372,7 @@
       <c r="M14" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="99">
+      <c r="N14" s="82">
         <v>240000</v>
       </c>
       <c r="O14" s="1"/>
@@ -6376,12 +6382,12 @@
       <c r="Q14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="98" t="s">
+      <c r="R14" s="81" t="s">
         <v>20</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6438,7 +6444,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6489,7 +6495,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>73</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -8335,41 +8341,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8414,58 +8420,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8490,23 +8496,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8540,7 +8546,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8579,7 +8585,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8616,7 +8622,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8645,7 +8651,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8674,7 +8680,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8703,7 +8709,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8732,7 +8738,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8763,7 +8769,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8792,7 +8798,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8821,7 +8827,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8850,7 +8856,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10627,41 +10633,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10706,58 +10712,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10782,23 +10788,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,7 +10838,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10871,7 +10877,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10900,7 +10906,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10929,7 +10935,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10958,7 +10964,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10987,7 +10993,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11016,7 +11022,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11047,7 +11053,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11076,7 +11082,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11105,7 +11111,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11134,7 +11140,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12911,41 +12917,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12990,58 +12996,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13066,23 +13072,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13108,7 +13114,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13139,7 +13145,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13168,7 +13174,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13197,7 +13203,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13226,7 +13232,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13255,7 +13261,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13284,7 +13290,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13315,7 +13321,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13344,7 +13350,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13373,7 +13379,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13402,7 +13408,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B102A63-A938-4CE3-9762-39D3BA1D7924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -317,9 +316,6 @@
     <t>ĐL Ngọc Kim Anh</t>
   </si>
   <si>
-    <t>125.212.203.114,16767,0</t>
-  </si>
-  <si>
     <t>Lỗi ăng ten GSM</t>
   </si>
   <si>
@@ -329,16 +325,10 @@
     <t>Quang</t>
   </si>
   <si>
-    <t>Ăng ten GSM</t>
-  </si>
-  <si>
     <t>Lỗi chập MCU</t>
   </si>
   <si>
     <t>Thay MCU</t>
-  </si>
-  <si>
-    <t>125.212.203.114,15555,0</t>
   </si>
   <si>
     <t>TB hoạt động bình thường</t>
@@ -347,16 +337,7 @@
     <t xml:space="preserve">Test Lại TB </t>
   </si>
   <si>
-    <t>125.212.203.114,15757,1</t>
-  </si>
-  <si>
     <t>LE.2.00.---28.200622</t>
-  </si>
-  <si>
-    <t>Lock:125.212.203.114,16161</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16363,0</t>
   </si>
   <si>
     <t>Lỗi LED GSM</t>
@@ -374,9 +355,6 @@
     <t>GSM,NCFW</t>
   </si>
   <si>
-    <t>203.162.69.75,20375,0</t>
-  </si>
-  <si>
     <t>Thiết bị hoạt động bình thường</t>
   </si>
   <si>
@@ -384,9 +362,6 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
-  </si>
-  <si>
-    <t>125.212.203.114,15757,0</t>
   </si>
   <si>
     <t>Nạp lại FW</t>
@@ -398,9 +373,6 @@
     <t>LK,NCFW</t>
   </si>
   <si>
-    <t>125.212.203.114,16161,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lỗi Angten GSM </t>
   </si>
   <si>
@@ -409,11 +381,35 @@
   <si>
     <t>Thay thế Angten GSM</t>
   </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20375</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thay led GSM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,14 +819,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,30 +870,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -883,11 +879,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,23 +975,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1034,23 +1010,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1226,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1262,41 +1221,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1329,57 +1288,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1404,22 +1363,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1412,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1484,7 +1443,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1513,7 +1472,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1501,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1571,7 +1530,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1600,7 +1559,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1588,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1660,7 +1619,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1689,7 +1648,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1677,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1706,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3464,13 +3423,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3482,6 +3434,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3489,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3525,28 +3484,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,10 +3515,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3592,57 +3551,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3667,22 +3626,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,15 +3664,15 @@
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52"/>
-      <c r="J6" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="67">
+      <c r="J6" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="66">
         <v>240000</v>
       </c>
       <c r="L6" s="53"/>
       <c r="M6" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" s="53" t="s">
         <v>18</v>
@@ -3726,7 +3685,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3757,7 +3716,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3786,7 +3745,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +3774,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3844,7 +3803,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3873,7 +3832,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3902,7 +3861,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3933,7 +3892,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3962,7 +3921,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3991,7 +3950,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +3979,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5736,13 +5695,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5754,6 +5706,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5761,11 +5720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5797,28 +5756,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5828,10 +5787,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5864,57 +5823,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5939,22 +5898,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5965,48 +5924,48 @@
         <v>44837</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="61">
         <v>868183034639091</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="87" t="s">
-        <v>101</v>
+      <c r="I6" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L6" s="55" t="s">
         <v>74</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="N6" s="53"/>
       <c r="O6" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P6" s="55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="56" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6022,38 +5981,38 @@
         <v>44837</v>
       </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="61">
         <v>868183034620083</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="52" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>74</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P7" s="55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="53" t="s">
         <v>19</v>
@@ -6063,7 +6022,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6077,14 +6036,14 @@
         <v>44837</v>
       </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="61">
         <v>868183038054982</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="51" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="51" t="s">
@@ -6118,7 +6077,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6132,19 +6091,19 @@
         <v>44837</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="61">
         <v>868183034531082</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>28</v>
@@ -6154,14 +6113,14 @@
         <v>74</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N9" s="53"/>
       <c r="O9" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P9" s="55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="53" t="s">
         <v>19</v>
@@ -6171,7 +6130,7 @@
       </c>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6185,14 +6144,14 @@
         <v>44837</v>
       </c>
       <c r="C10" s="50"/>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="61">
         <v>867857039938233</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="51" t="s">
         <v>66</v>
       </c>
       <c r="H10" s="51"/>
@@ -6226,7 +6185,7 @@
       </c>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6240,14 +6199,14 @@
         <v>44837</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="61">
         <v>868183038518820</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48" t="s">
+      <c r="F11" s="51"/>
+      <c r="G11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="63"/>
@@ -6263,7 +6222,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6276,31 +6235,49 @@
       <c r="B12" s="50">
         <v>44837</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="61">
         <v>868183033877502</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6315,49 +6292,49 @@
       <c r="B13" s="50">
         <v>44837</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="61">
         <v>868183038027681</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="51"/>
+      <c r="G13" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="43" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="33" t="s">
+      <c r="N13" s="53"/>
+      <c r="O13" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="3"/>
+      <c r="R13" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6370,43 +6347,43 @@
       <c r="B14" s="50">
         <v>44837</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="61">
         <v>868183034626445</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33" t="s">
-        <v>93</v>
+      <c r="H14" s="64"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55" t="s">
+        <v>91</v>
       </c>
       <c r="N14" s="66">
         <v>240000</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="O14" s="53"/>
+      <c r="P14" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6419,51 +6396,51 @@
       <c r="B15" s="50">
         <v>44837</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="61">
         <v>868183037863979</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="53"/>
+      <c r="O15" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6476,45 +6453,47 @@
       <c r="B16" s="50">
         <v>44837</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="61">
         <v>868183033867255</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="L16" s="55"/>
+      <c r="M16" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="P16" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6527,45 +6506,47 @@
       <c r="B17" s="50">
         <v>44837</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="61">
         <v>868183034522347</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48" t="s">
+      <c r="F17" s="51"/>
+      <c r="G17" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
+      <c r="I17" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="P17" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="R17" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="62"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="13"/>
@@ -6578,45 +6559,45 @@
       <c r="B18" s="50">
         <v>44837</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="48" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="61">
         <v>868183034536875</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="27" t="s">
+      <c r="H18" s="53"/>
+      <c r="I18" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
+      <c r="M18" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P18" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="P18" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S18" s="3"/>
+      <c r="R18" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="S18" s="62"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="13"/>
@@ -6629,49 +6610,49 @@
       <c r="B19" s="50">
         <v>44837</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="48" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="61">
         <v>868183037860686</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="52" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K19" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="L19" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
+      <c r="M19" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P19" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="P19" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S19" s="3"/>
+      <c r="R19" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" s="62"/>
       <c r="T19" s="12"/>
       <c r="U19" s="34" t="s">
         <v>39</v>
@@ -6688,54 +6669,54 @@
       <c r="B20" s="50">
         <v>44837</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="48" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="61">
         <v>868183038077736</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48" t="s">
+      <c r="F20" s="51"/>
+      <c r="G20" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
+      <c r="I20" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
+      <c r="N20" s="53"/>
+      <c r="O20" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P20" s="33" t="s">
+      <c r="P20" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="62"/>
       <c r="T20" s="12"/>
       <c r="U20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -6743,24 +6724,24 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="12"/>
       <c r="U21" s="3" t="s">
         <v>49</v>
@@ -7012,7 +6993,7 @@
       </c>
       <c r="V29" s="3">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" s="12"/>
     </row>
@@ -7140,7 +7121,7 @@
       </c>
       <c r="V33" s="3">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" s="12"/>
     </row>
@@ -7204,7 +7185,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -7236,7 +7217,7 @@
       </c>
       <c r="V36" s="3">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="12"/>
     </row>
@@ -7268,7 +7249,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -8333,6 +8314,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8344,13 +8332,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8358,7 +8339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -8394,28 +8375,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8425,10 +8406,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8461,57 +8442,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8536,22 +8517,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8585,7 +8566,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8624,7 +8605,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8661,7 +8642,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8690,7 +8671,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8719,7 +8700,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8748,7 +8729,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8777,7 +8758,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8808,7 +8789,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8837,7 +8818,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8866,7 +8847,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8895,7 +8876,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10611,6 +10592,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10622,13 +10610,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10636,7 +10617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -10672,28 +10653,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10703,10 +10684,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -10739,57 +10720,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10814,22 +10795,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10863,7 +10844,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10902,7 +10883,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10931,7 +10912,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10960,7 +10941,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10989,7 +10970,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11018,7 +10999,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11047,7 +11028,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11078,7 +11059,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11107,7 +11088,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11136,7 +11117,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11165,7 +11146,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12881,6 +12862,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12892,13 +12880,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12906,7 +12887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12942,28 +12923,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12973,10 +12954,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -13009,57 +12990,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -13084,22 +13065,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="85"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13125,7 +13106,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13156,7 +13137,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13185,7 +13166,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13214,7 +13195,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13243,7 +13224,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13272,7 +13253,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13301,7 +13282,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13332,7 +13313,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13361,7 +13342,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13390,7 +13371,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13419,7 +13400,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14650,13 +14631,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14668,6 +14642,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>Thay led GSM</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Xử lý lại khay sim</t>
   </si>
 </sst>
 </file>
@@ -828,29 +834,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -870,6 +855,30 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -878,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,41 +1227,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1288,57 +1294,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1363,22 +1369,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1418,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1443,7 +1449,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1472,7 +1478,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1501,7 +1507,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1530,7 +1536,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1559,7 +1565,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1588,7 +1594,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1619,7 +1625,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1648,7 +1654,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +1683,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1706,7 +1712,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3423,6 +3429,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3434,13 +3447,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3484,41 +3490,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3551,57 +3557,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3626,22 +3632,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,7 +3691,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3716,7 +3722,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3745,7 +3751,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3774,7 +3780,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3803,7 +3809,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3832,7 +3838,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3861,7 +3867,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3892,7 +3898,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3921,7 +3927,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3950,7 +3956,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3979,7 +3985,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5695,6 +5701,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5706,13 +5719,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5723,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5756,41 +5762,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5823,57 +5829,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5898,22 +5904,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5965,7 +5971,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6022,7 +6028,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6077,7 +6083,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6130,7 +6136,7 @@
       </c>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6185,7 +6191,7 @@
       </c>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6222,7 +6228,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6277,7 +6283,7 @@
       </c>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6334,7 +6340,7 @@
       </c>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6383,7 +6389,7 @@
       </c>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6440,7 +6446,7 @@
       </c>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6493,7 +6499,7 @@
       </c>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>104</v>
       </c>
       <c r="K18" s="53"/>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M18" s="55" t="s">
@@ -6633,7 +6639,7 @@
       <c r="K19" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="86" t="s">
+      <c r="L19" s="69" t="s">
         <v>74</v>
       </c>
       <c r="M19" s="55" t="s">
@@ -8314,13 +8320,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8332,6 +8331,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8375,41 +8381,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8442,57 +8448,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8517,22 +8523,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8566,7 +8572,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8605,7 +8611,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8642,7 +8648,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8671,7 +8677,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8700,7 +8706,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8729,7 +8735,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8758,7 +8764,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8789,7 +8795,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8818,7 +8824,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8847,7 +8853,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8876,7 +8882,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10592,13 +10598,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10610,6 +10609,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10620,8 +10626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10653,41 +10659,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -10720,57 +10726,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10795,22 +10801,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10844,7 +10850,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10870,20 +10876,38 @@
       <c r="G7" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K7" s="46"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10912,7 +10936,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10941,7 +10965,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10970,7 +10994,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10999,7 +11023,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11028,7 +11052,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11059,7 +11083,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11088,7 +11112,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11117,7 +11141,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11146,7 +11170,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11296,7 +11320,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -11605,7 +11629,7 @@
       </c>
       <c r="V31" s="3">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="12"/>
     </row>
@@ -11797,7 +11821,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -12862,13 +12886,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12880,6 +12897,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12923,41 +12947,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -12990,57 +13014,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -13065,22 +13089,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13106,7 +13130,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13137,7 +13161,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13166,7 +13190,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13195,7 +13219,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13224,7 +13248,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13253,7 +13277,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13282,7 +13306,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13313,7 +13337,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13342,7 +13366,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13371,7 +13395,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13400,7 +13424,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14631,6 +14655,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14642,13 +14673,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -411,6 +411,45 @@
   <si>
     <t>Xử lý lại khay sim</t>
   </si>
+  <si>
+    <t>Thiết bị chập nổ nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Lỗi led GSM, oxi hóa connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay led GSM, xử lý connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>125.212.203.250,21083</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>MCU bị oxi hóa</t>
+  </si>
 </sst>
 </file>
 
@@ -630,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -834,8 +873,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,30 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1194,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1227,41 +1263,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1294,57 +1330,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1369,22 +1405,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,9 +1442,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
+      <c r="I6" s="52" t="s">
+        <v>129</v>
+      </c>
       <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="K6" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="53"/>
@@ -1418,7 +1458,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1449,7 +1489,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1518,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1547,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1576,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1565,7 +1605,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1634,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1625,7 +1665,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1654,7 +1694,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1723,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1752,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3429,13 +3469,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3447,6 +3480,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3458,7 +3498,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3490,41 +3530,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3557,57 +3597,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3632,22 +3672,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3671,27 +3711,29 @@
       <c r="H6" s="51"/>
       <c r="I6" s="52"/>
       <c r="J6" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="66">
-        <v>240000</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K6" s="66"/>
       <c r="L6" s="53"/>
       <c r="M6" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="66">
+        <v>240000</v>
+      </c>
+      <c r="O6" s="56"/>
+      <c r="P6" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="Q6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="R6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3722,7 +3764,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3751,7 +3793,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3780,7 +3822,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3809,7 +3851,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3838,7 +3880,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3867,7 +3909,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3898,7 +3940,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3927,7 +3969,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3956,7 +3998,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3985,7 +4027,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4135,7 +4177,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -4284,7 +4326,7 @@
       </c>
       <c r="V26" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="12"/>
     </row>
@@ -4636,7 +4678,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -5701,13 +5743,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5719,6 +5754,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5729,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5762,41 +5804,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5829,57 +5871,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5904,22 +5946,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5950,8 +5992,8 @@
       <c r="K6" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="55" t="s">
-        <v>74</v>
+      <c r="L6" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M6" s="55" t="s">
         <v>116</v>
@@ -5971,7 +6013,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6007,8 +6049,8 @@
       <c r="K7" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="L7" s="55" t="s">
-        <v>74</v>
+      <c r="L7" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M7" s="55" t="s">
         <v>102</v>
@@ -6028,7 +6070,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6062,8 +6104,8 @@
       <c r="K8" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="55" t="s">
-        <v>74</v>
+      <c r="L8" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M8" s="55" t="s">
         <v>38</v>
@@ -6083,7 +6125,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6115,8 +6157,8 @@
         <v>28</v>
       </c>
       <c r="K9" s="53"/>
-      <c r="L9" s="55" t="s">
-        <v>74</v>
+      <c r="L9" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M9" s="55" t="s">
         <v>103</v>
@@ -6136,7 +6178,7 @@
       </c>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6170,8 +6212,8 @@
       <c r="K10" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="55" t="s">
-        <v>74</v>
+      <c r="L10" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M10" s="55" t="s">
         <v>84</v>
@@ -6191,7 +6233,7 @@
       </c>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6215,20 +6257,36 @@
       <c r="G11" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="55"/>
+      <c r="H11" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>107</v>
+      </c>
       <c r="M11" s="55"/>
       <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="53"/>
+      <c r="O11" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>19</v>
+      </c>
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6262,8 +6320,8 @@
       <c r="K12" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="55" t="s">
-        <v>74</v>
+      <c r="L12" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M12" s="55" t="s">
         <v>84</v>
@@ -6283,7 +6341,7 @@
       </c>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6319,8 +6377,8 @@
       <c r="K13" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="55" t="s">
-        <v>74</v>
+      <c r="L13" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M13" s="55" t="s">
         <v>88</v>
@@ -6340,7 +6398,7 @@
       </c>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6370,7 +6428,9 @@
         <v>90</v>
       </c>
       <c r="K14" s="53"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="61" t="s">
+        <v>107</v>
+      </c>
       <c r="M14" s="55" t="s">
         <v>91</v>
       </c>
@@ -6389,7 +6449,7 @@
       </c>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6425,8 +6485,8 @@
       <c r="K15" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="55" t="s">
-        <v>74</v>
+      <c r="L15" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M15" s="55" t="s">
         <v>76</v>
@@ -6446,7 +6506,7 @@
       </c>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6480,7 +6540,9 @@
       <c r="K16" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="55"/>
+      <c r="L16" s="61" t="s">
+        <v>107</v>
+      </c>
       <c r="M16" s="55" t="s">
         <v>93</v>
       </c>
@@ -6499,7 +6561,7 @@
       </c>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6535,7 +6597,9 @@
       <c r="K17" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="55"/>
+      <c r="L17" s="61" t="s">
+        <v>107</v>
+      </c>
       <c r="M17" s="55" t="s">
         <v>93</v>
       </c>
@@ -6584,8 +6648,8 @@
         <v>104</v>
       </c>
       <c r="K18" s="53"/>
-      <c r="L18" s="69" t="s">
-        <v>74</v>
+      <c r="L18" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M18" s="55" t="s">
         <v>97</v>
@@ -6639,8 +6703,8 @@
       <c r="K19" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="69" t="s">
-        <v>74</v>
+      <c r="L19" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M19" s="55" t="s">
         <v>108</v>
@@ -6696,8 +6760,8 @@
       <c r="K20" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="55" t="s">
-        <v>74</v>
+      <c r="L20" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="M20" s="55" t="s">
         <v>38</v>
@@ -6722,7 +6786,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -8320,6 +8384,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8331,13 +8402,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8348,8 +8412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8381,41 +8445,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8448,57 +8512,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8523,22 +8587,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8549,30 +8613,46 @@
         <v>44837</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="61">
         <v>862631039266670</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="53"/>
+      <c r="I6" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="53"/>
+      <c r="M6" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="66">
+        <v>385000</v>
+      </c>
       <c r="O6" s="53"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="3"/>
+      <c r="P6" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8588,30 +8668,46 @@
         <v>44837</v>
       </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="61">
         <v>861694031741505</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8625,30 +8721,50 @@
         <v>44837</v>
       </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="61">
         <v>862631034746221</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
+      <c r="F8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8677,7 +8793,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8706,7 +8822,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8735,7 +8851,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8764,7 +8880,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8795,7 +8911,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8824,7 +8940,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8853,7 +8969,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8882,7 +8998,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9000,7 +9116,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -9032,7 +9148,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -9064,7 +9180,7 @@
       </c>
       <c r="V22" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="12"/>
     </row>
@@ -9245,7 +9361,7 @@
       </c>
       <c r="V28" s="3">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="12"/>
     </row>
@@ -9277,7 +9393,7 @@
       </c>
       <c r="V29" s="3">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="12"/>
     </row>
@@ -9373,7 +9489,7 @@
       </c>
       <c r="V32" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="12"/>
     </row>
@@ -9469,7 +9585,7 @@
       </c>
       <c r="V35" s="3">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="12"/>
     </row>
@@ -9533,7 +9649,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -10598,6 +10714,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10609,13 +10732,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10626,8 +10742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10659,41 +10775,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -10726,57 +10842,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10801,22 +10917,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10838,19 +10954,35 @@
         <v>66</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
+      <c r="L6" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>120</v>
+      </c>
       <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10907,7 +11039,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10936,7 +11068,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10965,7 +11097,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10994,7 +11126,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11023,7 +11155,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11052,7 +11184,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11083,7 +11215,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11112,7 +11244,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11141,7 +11273,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11170,7 +11302,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11320,7 +11452,7 @@
       </c>
       <c r="V21" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="12"/>
     </row>
@@ -11565,7 +11697,7 @@
       </c>
       <c r="V29" s="3">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="12"/>
     </row>
@@ -11821,7 +11953,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -12886,6 +13018,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12897,13 +13036,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12947,41 +13079,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -13014,57 +13146,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -13089,22 +13221,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="83"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,7 +13262,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13161,7 +13293,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13190,7 +13322,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13219,7 +13351,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13248,7 +13380,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13277,7 +13409,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13306,7 +13438,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13337,7 +13469,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13366,7 +13498,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13395,7 +13527,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13424,7 +13556,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14655,13 +14787,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14673,6 +14798,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Lỗi chập MCU</t>
   </si>
   <si>
-    <t>Thay MCU</t>
-  </si>
-  <si>
     <t>TB hoạt động bình thường</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
     <t>Thiết bị lỗi module GPS</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>SE.4.00.---06.200630</t>
   </si>
   <si>
@@ -449,6 +443,12 @@
   </si>
   <si>
     <t>MCU bị oxi hóa</t>
+  </si>
+  <si>
+    <t>Báo giá không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -873,30 +873,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,6 +890,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1263,41 +1263,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1330,57 +1330,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1405,22 +1405,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,11 +1443,11 @@
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="53"/>
       <c r="K6" s="54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
@@ -1458,7 +1458,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1489,7 +1489,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1665,7 +1665,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3469,6 +3469,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3480,13 +3487,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3497,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3530,28 +3530,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,10 +3561,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3597,57 +3597,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3672,22 +3672,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,17 +3711,17 @@
       <c r="H6" s="51"/>
       <c r="I6" s="52"/>
       <c r="J6" s="67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K6" s="66"/>
       <c r="L6" s="53"/>
       <c r="M6" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="66">
-        <v>240000</v>
-      </c>
-      <c r="O6" s="56"/>
+        <v>130</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="56" t="s">
+        <v>131</v>
+      </c>
       <c r="P6" s="55" t="s">
         <v>89</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3764,7 +3764,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3940,7 +3940,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="V41" s="3">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="12"/>
     </row>
@@ -5743,6 +5743,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5754,13 +5761,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5771,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showZeros="0" topLeftCell="I4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5804,28 +5804,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5835,10 +5835,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5871,57 +5871,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5946,22 +5946,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,36 +5984,36 @@
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="55" t="s">
         <v>115</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>116</v>
       </c>
       <c r="N6" s="53"/>
       <c r="O6" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P6" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6041,26 +6041,26 @@
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="L7" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="55" t="s">
         <v>101</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>102</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P7" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="53" t="s">
         <v>19</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>71</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="55" t="s">
         <v>38</v>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6151,24 +6151,24 @@
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N9" s="53"/>
       <c r="O9" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P9" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="53" t="s">
         <v>19</v>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>71</v>
       </c>
       <c r="L10" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M10" s="55" t="s">
         <v>84</v>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6261,16 +6261,16 @@
         <v>73</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" s="55"/>
       <c r="N11" s="53"/>
@@ -6286,7 +6286,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6312,16 +6312,16 @@
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>82</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M12" s="55" t="s">
         <v>84</v>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="H13" s="64"/>
       <c r="I13" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>87</v>
@@ -6378,7 +6378,7 @@
         <v>71</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" s="55" t="s">
         <v>88</v>
@@ -6394,11 +6394,11 @@
         <v>18</v>
       </c>
       <c r="R13" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6429,15 +6429,15 @@
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M14" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="66">
-        <v>240000</v>
-      </c>
-      <c r="O14" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N14" s="66"/>
+      <c r="O14" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="P14" s="55" t="s">
         <v>89</v>
       </c>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>71</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M15" s="55" t="s">
         <v>76</v>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6532,19 +6532,19 @@
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="53" t="s">
         <v>74</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M16" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53" t="s">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6589,19 +6589,19 @@
         <v>73</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J17" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="55" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>93</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53" t="s">
@@ -6642,30 +6642,30 @@
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" s="53"/>
       <c r="L18" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M18" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N18" s="53"/>
       <c r="O18" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P18" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="53" t="s">
         <v>18</v>
       </c>
       <c r="R18" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S18" s="62"/>
       <c r="T18" s="12"/>
@@ -6698,29 +6698,29 @@
         <v>72</v>
       </c>
       <c r="J19" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="L19" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="55" t="s">
         <v>107</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>108</v>
       </c>
       <c r="N19" s="53"/>
       <c r="O19" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P19" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="53" t="s">
         <v>18</v>
       </c>
       <c r="R19" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S19" s="62"/>
       <c r="T19" s="12"/>
@@ -6761,7 +6761,7 @@
         <v>71</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="55" t="s">
         <v>38</v>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="V41" s="3">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="12"/>
     </row>
@@ -8384,13 +8384,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8402,6 +8395,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8412,8 +8412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showZeros="0" topLeftCell="J4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8445,28 +8445,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8476,10 +8476,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8512,57 +8512,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8587,22 +8587,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8625,22 +8625,22 @@
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J6" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="54" t="s">
         <v>121</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>123</v>
       </c>
       <c r="L6" s="53"/>
       <c r="M6" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="66">
-        <v>385000</v>
-      </c>
-      <c r="O6" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="P6" s="55" t="s">
         <v>78</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8680,17 +8680,17 @@
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="53"/>
       <c r="O7" s="53" t="s">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8735,19 +8735,19 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="54" t="s">
+      <c r="L8" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="55" t="s">
         <v>126</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>128</v>
       </c>
       <c r="N8" s="53"/>
       <c r="O8" s="53" t="s">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8822,7 +8822,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8851,7 +8851,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8880,7 +8880,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8911,7 +8911,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8969,7 +8969,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8998,7 +8998,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="V41" s="3">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="12"/>
     </row>
@@ -10714,13 +10714,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10732,6 +10725,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10742,8 +10742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10775,28 +10775,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10806,10 +10806,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -10842,57 +10842,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10917,22 +10917,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10955,17 +10955,17 @@
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6" s="54"/>
       <c r="L6" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N6" s="53"/>
       <c r="O6" s="53" t="s">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11012,17 +11012,17 @@
         <v>73</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K7" s="46"/>
       <c r="L7" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>118</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11068,7 +11068,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11097,7 +11097,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11126,7 +11126,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11155,7 +11155,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11184,7 +11184,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11215,7 +11215,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11244,7 +11244,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11273,7 +11273,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11302,7 +11302,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13018,13 +13018,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13036,6 +13029,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13079,28 +13079,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13110,10 +13110,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -13146,57 +13146,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -13221,22 +13221,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="85"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="76"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="82"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,7 +13262,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13293,7 +13293,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13351,7 +13351,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13380,7 +13380,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13409,7 +13409,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13438,7 +13438,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13469,7 +13469,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13498,7 +13498,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13527,7 +13527,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13556,7 +13556,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14787,6 +14787,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14798,13 +14805,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLNgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>Đã test lại</t>
   </si>
 </sst>
 </file>
@@ -873,6 +876,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -890,30 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1230,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1263,41 +1266,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1330,57 +1333,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1405,22 +1408,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1433,9 @@
       <c r="B6" s="50">
         <v>44654</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
       <c r="D6" s="48" t="s">
         <v>62</v>
       </c>
@@ -1445,20 +1450,32 @@
       <c r="I6" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="K6" s="54" t="s">
         <v>128</v>
       </c>
       <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1489,7 +1506,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1535,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1564,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1576,7 +1593,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1605,7 +1622,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1634,7 +1651,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1665,7 +1682,7 @@
       <c r="R13" s="56"/>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1711,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1740,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1752,7 +1769,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1888,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="12"/>
     </row>
@@ -2372,7 +2389,7 @@
       </c>
       <c r="V36" s="3">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="12"/>
     </row>
@@ -2404,7 +2421,7 @@
       </c>
       <c r="V37" s="3">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="12"/>
     </row>
@@ -3469,13 +3486,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3487,6 +3497,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3497,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3530,28 +3547,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,10 +3578,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3597,57 +3614,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3672,22 +3689,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,7 +3714,9 @@
       <c r="B6" s="50">
         <v>44837</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
       <c r="D6" s="48" t="s">
         <v>56</v>
       </c>
@@ -3733,7 +3752,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3764,7 +3783,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3793,7 +3812,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3822,7 +3841,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3851,7 +3870,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3880,7 +3899,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3909,7 +3928,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3940,7 +3959,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3969,7 +3988,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3998,7 +4017,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4027,7 +4046,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5743,13 +5762,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5761,6 +5773,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5771,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showZeros="0" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5804,28 +5823,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5835,10 +5854,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -5871,57 +5890,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -5946,22 +5965,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5971,7 +5990,9 @@
       <c r="B6" s="50">
         <v>44837</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -6013,7 +6034,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6028,7 +6049,9 @@
       <c r="B7" s="50">
         <v>44837</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44841</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -6070,7 +6093,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6083,7 +6106,9 @@
       <c r="B8" s="50">
         <v>44837</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50">
+        <v>44841</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
@@ -6125,7 +6150,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6138,7 +6163,9 @@
       <c r="B9" s="50">
         <v>44837</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="50">
+        <v>44841</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>44</v>
       </c>
@@ -6178,7 +6205,7 @@
       </c>
       <c r="S9" s="62"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6191,7 +6218,9 @@
       <c r="B10" s="50">
         <v>44837</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="50">
+        <v>44841</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>44</v>
       </c>
@@ -6233,7 +6262,7 @@
       </c>
       <c r="S10" s="62"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6246,7 +6275,9 @@
       <c r="B11" s="50">
         <v>44837</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="50">
+        <v>44841</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>44</v>
       </c>
@@ -6272,7 +6303,9 @@
       <c r="L11" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="53"/>
       <c r="O11" s="53" t="s">
         <v>77</v>
@@ -6286,7 +6319,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="62"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6299,7 +6332,9 @@
       <c r="B12" s="50">
         <v>44837</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="50">
+        <v>44841</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>44</v>
       </c>
@@ -6341,7 +6376,7 @@
       </c>
       <c r="S12" s="62"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6356,7 +6391,9 @@
       <c r="B13" s="50">
         <v>44837</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="50">
+        <v>44841</v>
+      </c>
       <c r="D13" s="51" t="s">
         <v>44</v>
       </c>
@@ -6398,7 +6435,7 @@
       </c>
       <c r="S13" s="62"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6411,7 +6448,9 @@
       <c r="B14" s="50">
         <v>44837</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="50">
+        <v>44841</v>
+      </c>
       <c r="D14" s="51" t="s">
         <v>44</v>
       </c>
@@ -6449,7 +6488,7 @@
       </c>
       <c r="S14" s="62"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6462,7 +6501,9 @@
       <c r="B15" s="50">
         <v>44837</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="50">
+        <v>44841</v>
+      </c>
       <c r="D15" s="51" t="s">
         <v>44</v>
       </c>
@@ -6506,7 +6547,7 @@
       </c>
       <c r="S15" s="62"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6519,7 +6560,9 @@
       <c r="B16" s="50">
         <v>44837</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="50">
+        <v>44841</v>
+      </c>
       <c r="D16" s="51" t="s">
         <v>44</v>
       </c>
@@ -6561,7 +6604,7 @@
       </c>
       <c r="S16" s="62"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6574,7 +6617,9 @@
       <c r="B17" s="50">
         <v>44837</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="50">
+        <v>44841</v>
+      </c>
       <c r="D17" s="51" t="s">
         <v>44</v>
       </c>
@@ -6629,7 +6674,9 @@
       <c r="B18" s="50">
         <v>44837</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="50">
+        <v>44841</v>
+      </c>
       <c r="D18" s="51" t="s">
         <v>44</v>
       </c>
@@ -6680,7 +6727,9 @@
       <c r="B19" s="50">
         <v>44837</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="50">
+        <v>44841</v>
+      </c>
       <c r="D19" s="51" t="s">
         <v>44</v>
       </c>
@@ -6739,7 +6788,9 @@
       <c r="B20" s="50">
         <v>44837</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="50">
+        <v>44841</v>
+      </c>
       <c r="D20" s="51" t="s">
         <v>44</v>
       </c>
@@ -8384,6 +8435,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8395,13 +8453,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8413,7 +8464,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="J4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8445,28 +8496,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8476,10 +8527,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -8512,57 +8563,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -8587,22 +8638,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8612,7 +8663,9 @@
       <c r="B6" s="50">
         <v>44837</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>69</v>
       </c>
@@ -8652,7 +8705,7 @@
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8667,7 +8720,9 @@
       <c r="B7" s="50">
         <v>44837</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44841</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>69</v>
       </c>
@@ -8707,7 +8762,7 @@
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8720,7 +8775,9 @@
       <c r="B8" s="50">
         <v>44837</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50">
+        <v>44841</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>69</v>
       </c>
@@ -8764,7 +8821,7 @@
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8793,7 +8850,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8822,7 +8879,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8851,7 +8908,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8880,7 +8937,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8911,7 +8968,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8940,7 +8997,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8969,7 +9026,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8998,7 +9055,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10714,6 +10771,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10725,13 +10789,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10742,8 +10799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10775,28 +10832,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10806,10 +10863,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -10842,57 +10899,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -10917,22 +10974,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10942,7 +10999,9 @@
       <c r="B6" s="50">
         <v>44837</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>44841</v>
+      </c>
       <c r="D6" s="48" t="s">
         <v>70</v>
       </c>
@@ -10982,7 +11041,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10997,7 +11056,9 @@
       <c r="B7" s="50">
         <v>44837</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44841</v>
+      </c>
       <c r="D7" s="48" t="s">
         <v>70</v>
       </c>
@@ -11039,7 +11100,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11068,7 +11129,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11097,7 +11158,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11126,7 +11187,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11155,7 +11216,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11184,7 +11245,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11215,7 +11276,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11244,7 +11305,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11273,7 +11334,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11302,7 +11363,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13018,6 +13079,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13029,13 +13097,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13079,28 +13140,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13110,10 +13171,10 @@
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -13146,57 +13207,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -13221,22 +13282,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="69"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="85"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,7 +13323,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13293,7 +13354,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13322,7 +13383,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13351,7 +13412,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13380,7 +13441,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13409,7 +13470,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13438,7 +13499,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13469,7 +13530,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13498,7 +13559,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13527,7 +13588,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13556,7 +13617,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14787,13 +14848,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14805,6 +14859,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
